--- a/medicine/Enfance/Le_Petit_Nicolas/Le_Petit_Nicolas.xlsx
+++ b/medicine/Enfance/Le_Petit_Nicolas/Le_Petit_Nicolas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Petit Nicolas est une œuvre de littérature pour la jeunesse écrite de 1956 à 1965[1] par René Goscinny, et illustrée par Jean-Jacques Sempé. Écrites sous forme de courts récits dans lesquels se mêlent l'humour et la tendresse de l'enfance, les aventures du Petit Nicolas mettent en scène un petit garçon dans un environnement urbain[2] pendant les années 1960. Le personnage y livre ses pensées intimes grâce à un langage enfantin créé par Goscinny et les thèmes sont avant tout ceux de l'enfance (la camaraderie, les disputes, les rapports avec la maîtresse d'école, les premières amourettes...) mais Goscinny y décrypte également le monde complexe des adultes : l'éducation, les disputes familiales, les rapports entre voisins, la relation du père avec son patron, etc.
+Le Petit Nicolas est une œuvre de littérature pour la jeunesse écrite de 1956 à 1965 par René Goscinny, et illustrée par Jean-Jacques Sempé. Écrites sous forme de courts récits dans lesquels se mêlent l'humour et la tendresse de l'enfance, les aventures du Petit Nicolas mettent en scène un petit garçon dans un environnement urbain pendant les années 1960. Le personnage y livre ses pensées intimes grâce à un langage enfantin créé par Goscinny et les thèmes sont avant tout ceux de l'enfance (la camaraderie, les disputes, les rapports avec la maîtresse d'école, les premières amourettes...) mais Goscinny y décrypte également le monde complexe des adultes : l'éducation, les disputes familiales, les rapports entre voisins, la relation du père avec son patron, etc.
 Il naît le 29 mars 1959 dans les colonnes de Sud-Ouest Dimanche. Publié sous la forme d’un conte illustré, il remporte un vif succès auprès des lecteurs et devient un feuilleton hebdomadaire pendant sept ans. À partir de 1960, les éditions Denoël publient cinq volumes du Petit Nicolas. Considéré comme un chef-d’œuvre de littérature jeunesse, les aventures du célèbre écolier sont devenues un classique.
 Ces récits entrecoupés d'illustrations ne comptent que quelques pages et sont généralement indépendants les uns des autres, bien que Nicolas cite parfois une anecdote d'une histoire précédente. L'ensemble de l'œuvre peut être lu sans ordre particulier tandis que certains passages tels que l'origine du surnom du Bouillon – un des surveillants de l'école –, la description du terrain vague ou encore le fait qu'Alceste est « un copain qui mange tout le temps » sont repris très régulièrement et contribuent au style enfantin de la narration.
 </t>
@@ -516,16 +528,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines
-C’est dans un magazine belge que débutent les collaborations entre Goscinny et Sempé. Le premier travaille aussi pour un hebdomadaire, Le Moustique, où il publiera environ une trentaine de feuilletons policiers sous les pseudonymes de René Macaire ou René Maldecq. À l’occasion, il dessine les couvertures du magazine. Le second collabore à ce magazine et réalise notamment trois ou quatre dessins représentant un petit garçon, de simples dessins de presse en une case. Le rédacteur en chef demande au dessinateur de lui trouver un nom. Sempé aperçoit une publicité d’un célèbre caviste sur un bus. Ce sera Nicolas[3].
-On rencontre pour la première fois les aventures du Petit Nicolas, tout d'abord sous forme de bande dessinée, dans un hebdomadaire belge, Le Moustique, de 1955 à 1956. René Goscinny signe le scénario de ces 28 gags[4] (un par semaine) sous le pseudonyme dAgostini alors que Sempé les illustre sous son propre nom. Celui-ci ne se sentant pas à l'aise dans le rôle de dessinateur de bande dessinée, le projet est abandonné[5].
-La bande dessinée du Petit Nicolas
-Le journal demande alors au dessinateur de transformer cette esquisse de personnage en une bande dessinée. Habile au crayon, Sempé n’est ni scénariste, ni écrivain. C’est Goscinny qui imagine et écrit les scénarios. Le 25 septembre 1955 paraît la première planche du Petit Nicolas en bande dessinée. À l’époque, Goscinny multiplie les collaborations et utilise plusieurs pseudonymes. C’est pourquoi les planches sont signées Sempé et « Agostini ». Mais l’aventure fait long feu. René Goscinny organise une réunion pour la défense des droits des auteurs. En retour, il est licencié. Sempé, solidaire, claque la porte. La vingt-huitième et dernière planche paraît le 20 mai 1956[6].
-Naissance du Petit Nicolas
-Trois ans plus tard, Henri Amouroux, le rédacteur en chef de Sud-Ouest Dimanche leur commande une histoire humoristique pour son numéro de Pâques. Inspiré, Goscinny propose à Sempé de réutiliser ce qui a été l’ébauche de leur éphémère collaboration, ce personnage de Nicolas, trop vite abandonné. Les deux amis changent de formule : « Je n’aime pas la bande dessinée. Je n’en ai jamais lu, je n’ai jamais aimé ça. En revanche les dessins humoristiques m’ont toujours passionné », dira Sempé[7]. Goscinny troque alors sa casquette de scénariste pour celle de conteur. « Il arriva avec un texte dans lequel un enfant, Nicolas, racontait sa vie avec ses copains qui avaient tous des noms bizarres : Rufus, Alceste, Maixent, Agnan, Clotaire... Le surveillant général était surnommé Le Bouillon. C’était parti : René avait trouvé la formule », expliquera Sempé qui ajoutera : « Il a tout inventé »[8].
-Le 29 mars 1959 paraît dans Sud-Ouest Dimanche, la première aventure du Petit Nicolas sous forme de conte écrit par Goscinny et illustré par Sempé. À l’origine, un seul épisode des aventures du Petit Nicolas était prévu. Le courrier des lecteurs est enthousiaste et le journal leur demande de continuer. Le succès est immédiat et l'œuvre prend sa forme définitive telle qu'on la connaît actuellement : de courts textes illustrés et non plus une bande dessinée. Le journal Pilote l'accueille également dès son premier numéro en octobre 1959 ; le jeune écolier y côtoie l’autre création de René Goscinny, Astérix le gaulois, né la même année que le Petit Nicolas. La série connaît un engouement ininterrompu jusqu'en 1965, année au cours de laquelle Goscinny met fin aux aventures de son petit personnage[1]. Les deux hommes partagent le même humour et se comprennent parfaitement. Goscinny écrit intégralement les histoires que Sempé illustre d’un, deux, voire trois ou quatre dessins en noir et blanc, au gré de son inspiration. Au rythme d’une histoire tous les dimanches, Goscinny et Sempé réalisent en 7 ans 222 histoires dont 10 ne seront illustrées qu’en 2008 par Sempé pour l’ouvrage Le Petit Nicolas – Le ballon et autres histoires inédites (IMAV éditions, 2009).
-Bien des années plus tard, en 2004, Anne Goscinny, fille de René Goscinny, fonde IMAV éditions qui devient l’éditrice du Petit Nicolas. Elle publie plusieurs volumes des Histoires inédites du Petit Nicolas. Désormais, IMAV est l’éditeur de l’intégralité des livres du Petit Nicolas (15 volumes) et gère tous les droits d’adaptation audiovisuelle et merchandising dans le monde entier.
-En mars 2009, le Petit Nicolas fête ses cinquante ans. Cet anniversaire est marqué par la sortie d'un nouveau recueil Le Ballon et Autres Histoires inédites, d'un film[9] et d'une série télévisée d'animation.
+          <t>Origines</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est dans un magazine belge que débutent les collaborations entre Goscinny et Sempé. Le premier travaille aussi pour un hebdomadaire, Le Moustique, où il publiera environ une trentaine de feuilletons policiers sous les pseudonymes de René Macaire ou René Maldecq. À l’occasion, il dessine les couvertures du magazine. Le second collabore à ce magazine et réalise notamment trois ou quatre dessins représentant un petit garçon, de simples dessins de presse en une case. Le rédacteur en chef demande au dessinateur de lui trouver un nom. Sempé aperçoit une publicité d’un célèbre caviste sur un bus. Ce sera Nicolas.
+On rencontre pour la première fois les aventures du Petit Nicolas, tout d'abord sous forme de bande dessinée, dans un hebdomadaire belge, Le Moustique, de 1955 à 1956. René Goscinny signe le scénario de ces 28 gags (un par semaine) sous le pseudonyme dAgostini alors que Sempé les illustre sous son propre nom. Celui-ci ne se sentant pas à l'aise dans le rôle de dessinateur de bande dessinée, le projet est abandonné.
 </t>
         </is>
       </c>
@@ -551,13 +561,95 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>La bande dessinée du Petit Nicolas</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le journal demande alors au dessinateur de transformer cette esquisse de personnage en une bande dessinée. Habile au crayon, Sempé n’est ni scénariste, ni écrivain. C’est Goscinny qui imagine et écrit les scénarios. Le 25 septembre 1955 paraît la première planche du Petit Nicolas en bande dessinée. À l’époque, Goscinny multiplie les collaborations et utilise plusieurs pseudonymes. C’est pourquoi les planches sont signées Sempé et « Agostini ». Mais l’aventure fait long feu. René Goscinny organise une réunion pour la défense des droits des auteurs. En retour, il est licencié. Sempé, solidaire, claque la porte. La vingt-huitième et dernière planche paraît le 20 mai 1956.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Naissance du Petit Nicolas</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois ans plus tard, Henri Amouroux, le rédacteur en chef de Sud-Ouest Dimanche leur commande une histoire humoristique pour son numéro de Pâques. Inspiré, Goscinny propose à Sempé de réutiliser ce qui a été l’ébauche de leur éphémère collaboration, ce personnage de Nicolas, trop vite abandonné. Les deux amis changent de formule : « Je n’aime pas la bande dessinée. Je n’en ai jamais lu, je n’ai jamais aimé ça. En revanche les dessins humoristiques m’ont toujours passionné », dira Sempé. Goscinny troque alors sa casquette de scénariste pour celle de conteur. « Il arriva avec un texte dans lequel un enfant, Nicolas, racontait sa vie avec ses copains qui avaient tous des noms bizarres : Rufus, Alceste, Maixent, Agnan, Clotaire... Le surveillant général était surnommé Le Bouillon. C’était parti : René avait trouvé la formule », expliquera Sempé qui ajoutera : « Il a tout inventé ».
+Le 29 mars 1959 paraît dans Sud-Ouest Dimanche, la première aventure du Petit Nicolas sous forme de conte écrit par Goscinny et illustré par Sempé. À l’origine, un seul épisode des aventures du Petit Nicolas était prévu. Le courrier des lecteurs est enthousiaste et le journal leur demande de continuer. Le succès est immédiat et l'œuvre prend sa forme définitive telle qu'on la connaît actuellement : de courts textes illustrés et non plus une bande dessinée. Le journal Pilote l'accueille également dès son premier numéro en octobre 1959 ; le jeune écolier y côtoie l’autre création de René Goscinny, Astérix le gaulois, né la même année que le Petit Nicolas. La série connaît un engouement ininterrompu jusqu'en 1965, année au cours de laquelle Goscinny met fin aux aventures de son petit personnage. Les deux hommes partagent le même humour et se comprennent parfaitement. Goscinny écrit intégralement les histoires que Sempé illustre d’un, deux, voire trois ou quatre dessins en noir et blanc, au gré de son inspiration. Au rythme d’une histoire tous les dimanches, Goscinny et Sempé réalisent en 7 ans 222 histoires dont 10 ne seront illustrées qu’en 2008 par Sempé pour l’ouvrage Le Petit Nicolas – Le ballon et autres histoires inédites (IMAV éditions, 2009).
+Bien des années plus tard, en 2004, Anne Goscinny, fille de René Goscinny, fonde IMAV éditions qui devient l’éditrice du Petit Nicolas. Elle publie plusieurs volumes des Histoires inédites du Petit Nicolas. Désormais, IMAV est l’éditeur de l’intégralité des livres du Petit Nicolas (15 volumes) et gère tous les droits d’adaptation audiovisuelle et merchandising dans le monde entier.
+En mars 2009, le Petit Nicolas fête ses cinquante ans. Cet anniversaire est marqué par la sortie d'un nouveau recueil Le Ballon et Autres Histoires inédites, d'un film et d'une série télévisée d'animation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Nicolas et ses copains
-Nicolas : C’est un écolier et il est le héros de l'histoire. Avec lui tout est « chouette ! ». Fils unique, il admire son père et sa mère dont il est « rien fier ». Il a un tas de copains avec qui il a formé la bande des « Vengeurs ».
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nicolas et ses copains</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicolas : C’est un écolier et il est le héros de l'histoire. Avec lui tout est « chouette ! ». Fils unique, il admire son père et sa mère dont il est « rien fier ». Il a un tas de copains avec qui il a formé la bande des « Vengeurs ».
 Alceste est son meilleur ami.
 Nicolas est également sous le charme de Marie-Edwige, sa voisine. C’est lui qui raconte l’histoire, comme la raconterait un enfant.
 « Le Petit Nicolas est un enfant normal… Il est gourmand, il est bagarreur, il aime jouer au football, il aime s’amuser…ceci dit il est très gentil » confiera Goscinny.
@@ -592,8 +684,43 @@
 Marie-Edwige aime le piano et la danse. Elle est aussi très coquette :  « Ma poupée (Chantal) et moi, on n’a plus rien à se mettre ! ». Dans l’histoire « Souvenirs de vacances », Nicolas ressent ses premiers émois… On peut se demander si il n'est pas tombé amoureux de Marie-Edwige.
 Louisette :  Autre jeune fille pour qui Nicolas a de l'intérêt. Des cheveux jaunes, avec des nattes, des yeux bleus, un nez et une robe rouges, elle a un sacré tempérament. « Ça ne m’intéresse pas tes livres, elle m’a dit Louisette (A Nicolas), t’a pas quelque chose de plus rigolo ? »
 Après une partie de football, une vitre cassée par Louisette et une punition pour Nicolas, le jeune garçon est séduit : « Elle est chouette, Louisette, quand on sera grands, on se mariera. Elle a un shoot terrible ! ».
-Nicolas et sa famille
-Maman : Comme son mari, la  mère de Nicolas n’est jamais nommée autrement que : « maman ». Très tendre avec son fils unique, elle adore son « chéri » et passe beaucoup de temps à la cuisine : « Elle m’a embrassé et elle a dit que, pour ce soir, elle ferait du gâteau ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nicolas et sa famille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Maman : Comme son mari, la  mère de Nicolas n’est jamais nommée autrement que : « maman ». Très tendre avec son fils unique, elle adore son « chéri » et passe beaucoup de temps à la cuisine : « Elle m’a embrassé et elle a dit que, pour ce soir, elle ferait du gâteau ».
 Il lui arrive de se mettre en colère : « Elle m’a fait des yeux, ceux avec lesquels il vaut mieux ne pas rigoler ». Pour son fils elle veut une éducation irréprochable et l’abreuve de recommandations. Parfois débordée, elle s’en remet à son mari : « Quand il viendra, tu lui avoueras ce que tu as fait, il te punira… ».
 Mais avec son mari les relations sont parfois tendues : « A moi les sales besognes ! ». Les disputes sont sans lendemain, une tarte aux pommes scellant la réconciliation.
 Son personnage est joué par Bernadette Lafont dans l’adaptation pour la télévision Tous les enfants du monde (1964), Valérie Lemercier dans les deux premiers films réalisés par Laurent Tirard, puis par Audrey Lamy dans Le trésor du Petit Nicolas réalisé par Julien Rappeneau.
@@ -608,73 +735,323 @@
 L’actrice Dominique Lavanant interprète le rôle de Mémé dans le film Les vacances du Petit Nicolas.
 Tonton Eugène : « C’est le frère de papa ; il est gros, raconte des blagues et il rit tout le temps. On ne le voit pas beaucoup, parce qu’il voyage, pour vendre des choses très loin, à Lyon, à Clermont-Ferrand et à Saint-Étienne ».
 Aux yeux de Nicolas, ce VRP est un « explorateur ». Héros de l’histoire « Le nez de Tonton Eugène », au cours de laquelle Nicolas écopera d’une punition : « Je ne dois pas apporter de nez en carton en classe d’histoire dans le but de faire le pitre et de dissiper mes camarades ».
-Les autres membres de la famille de Nicolas : Il y a l'oncle Casimir. Les cousins et cousines : Éloi, Roch, Euloge et Lambert ainsi qu’Elvire, Clarisse et Félicité. Les tantes : elles se nomment Pulchérie, Eulogie, Clarisse, Dorothée ainsi que la redoutable tante Mathilde au sans-gêne proverbial.
-Le personnel enseignant
-La maîtresse : Elle instruit la classe de Nicolas et ses copains, ce qui ne va pas sans problèmes. Lorsqu'elle veut gronder un élève, elle se met à le vouvoyer. Bien qu'elle soit parfois sévère, Nicolas la trouve généralement « chouette ».
+Les autres membres de la famille de Nicolas : Il y a l'oncle Casimir. Les cousins et cousines : Éloi, Roch, Euloge et Lambert ainsi qu’Elvire, Clarisse et Félicité. Les tantes : elles se nomment Pulchérie, Eulogie, Clarisse, Dorothée ainsi que la redoutable tante Mathilde au sans-gêne proverbial.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Le personnel enseignant</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La maîtresse : Elle instruit la classe de Nicolas et ses copains, ce qui ne va pas sans problèmes. Lorsqu'elle veut gronder un élève, elle se met à le vouvoyer. Bien qu'elle soit parfois sévère, Nicolas la trouve généralement « chouette ».
 Le directeur de l'école : Il apparaît fréquemment lorsque la classe devient trop intenable. Il entre toujours selon la formule rituelle : « Debout », dit la maîtresse. « Assis », dit monsieur le Directeur. Il menace les enfants de les envoyer au piquet  s'ils ne sont pas sages, notamment Clotaire.
 M. Dubon alias le Bouillon : Un surveillant à l'école, qui est très sévère. Il est secrètement surnommé « le Bouillon » non parce qu'il bouillonne souvent de colère, mais parce qu'il dit souvent aux élèves « Regardez-moi dans les yeux » et dans le bouillon, il y a des yeux (ce sont les grands qui ont trouvé ce surnom).
-Dubon semble être originaire de Corrèze[10] et a été sergent-chef dans la Coloniale. Il utilise un langage assez recherché : « proférer », « sobriquet », etc.
+Dubon semble être originaire de Corrèze et a été sergent-chef dans la Coloniale. Il utilise un langage assez recherché : « proférer », « sobriquet », etc.
 M. Mouchabière : Un autre surveillant de l'école, plus jeune que Le Bouillon mais pas moins sévère. Les élèves ne lui ont pas encore trouvé de surnom rigolo. Le Petit Nicolas dit de lui : « On a l'impression que ça ne fait pas longtemps qu'il est sorti de l'école. Il  est un peu plus vieux que les grands, mais pas tellement plus. »
-Mlle Vanderblergue : C'est la professeur de chant. Elle n'apparaît que dans une seule histoire (On a répété pour le ministre) où elle fait chanter La Marseillaise aux élèves.
-Autres personnages
-Roger Moucheboume : C'est le patron du papa de Nicolas. Il exploite ses employés et leur refuse toujours une augmentation. Il fait parfois des cadeaux à Nicolas. C'est un homme exigeant, mais jus
+Mlle Vanderblergue : C'est la professeur de chant. Elle n'apparaît que dans une seule histoire (On a répété pour le ministre) où elle fait chanter La Marseillaise aux élèves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres personnages</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Roger Moucheboume : C'est le patron du papa de Nicolas. Il exploite ses employés et leur refuse toujours une augmentation. Il fait parfois des cadeaux à Nicolas. C'est un homme exigeant, mais jus
 L'inspecteur : Ce personnage n'apparaît que dans une aventure (On a eu l'inspecteur). C'est un homme habillé en noir avec des lunettes et de gros sourcils. On raconte que c'est un sacré blagueur mais qu'il est reparti aussi vite qu'il est venu, à cause de l'attitude des élèves.
 Le ministre : Ce personnage éminent n'est autre qu'un ancien élève de l'école. Nicolas et deux de ses camarades devaient lui apporter des plumeaux pour lui faire honneur mais ils ont été enfermés dans la buanderie à cause de leur indiscipline.
-La remplaçante : Elle remplace la maîtresse de Nicolas et ses amis dans une aventure. Elle est décrite comme une femme âgée, portant des lunettes, et qui postillonne lorsqu'elle parle. Elle est un peu sourde à tel point qu'elle appelle Agnan "Armand" et Clotaire "Hilaire".
-Le voisinage et le quartier
-Mme Courteplaque : Mère de Marie-Edwige, elle adore vanter les qualités de sa fille.
+La remplaçante : Elle remplace la maîtresse de Nicolas et ses amis dans une aventure. Elle est décrite comme une femme âgée, portant des lunettes, et qui postillonne lorsqu'elle parle. Elle est un peu sourde à tel point qu'elle appelle Agnan "Armand" et Clotaire "Hilaire".</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Le voisinage et le quartier</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Mme Courteplaque : Mère de Marie-Edwige, elle adore vanter les qualités de sa fille.
 M. Blédurt : Autre voisin de Nicolas. Il aime taquiner le papa de Nicolas, mais c'est pour rire ! En réalité, ils s'entendent plutôt bien : ils vont pique-niquer ensemble, jouer au croquet ou encore faire des promenades.
 Mme Chouquette : Boulangère et pâtissière, Nicolas et ses amis viennent parfois la voir pour s'acheter leur goûter, surtout Alceste (qui est en fait son chouchou).
 M. Compani : L'épicier de la ville. Il s'agit vraisemblablement d'un homme très sympathique, qui aime bien Nicolas. Il lui offre parfois des biscuits ou des olives à manger, voire un chaton, « Bonbon », que sa chatte « Biscotte » a mis au monde. Malheureusement, la mère de Nicolas ne voudra pas garder le chaton, et l'enfant devra s'en séparer.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Le_Petit_Nicolas</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Le_Petit_Nicolas</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>René Goscinny a écrit 223 histoires au total. 222 d'entre elles ont été rassemblées en huit recueils, 5 du vivant de Goscinny et 3 au cours des années 2000.
-Le Petit Nicolas en livres
-En 1960, sort Le Petit Nicolas en librairie chez Denoël qui sera le premier éditeur de la saga. Les cinq premiers volumes qui paraissent chaque année de 1960 à 1964 : Le Petit Nicolas, Les récrés du Petit Nicolas, Les vacances du Petit Nicolas, Le Petit Nicolas et les copains, Joachim a des ennuis (qui sera réédité plus tard sous le titre Le Petit Nicolas a des ennuis). Chaque recueil rassemble une quinzaine d’histoires parues dans Sud-Ouest-Dimanche et Pilote. « Le premier volume n’a absolument pas marché » raconte Sempé. C’est l’émission de télévision, Lecture pour tous animée par Pierre Dumayet qui lance Le Petit Nicolas, grâce à la présence sur le plateau de ses deux créateurs : « Nous avons arrêté avant que cela ne tourne au cauchemar. C’était un style très spécial. Il ne fallait pas que cela tourne au procédé. Cela dit, chaque fois que nous nous voyons, nous sommes tentés de reprendre les aventures du Petit Nicolas… C’est un personnage pour qui j’ai une tendresse toute particulière »[11] déclare Goscinny, qui disparaît en 1977. « Il avait trouvé un ton formidable et qui plaît encore aux enfants d’aujourd’hui, fait remarquer Sempé. Par la suite, il m’a dit, à plusieurs reprises, que le Petit Nicolas était ce qu’il préférait de toute son œuvre ».[12]
-La deuxième vie du Petit Nicolas
-En 2004, Anne Goscinny exhume des archives de son père nombre d’histoires inédites en livre, pour la plupart parues dans Sud-Ouest Dimanche. Elle décide, avec l’accord de Sempé, de publier ces inédits chez IMAV, maison d’éditions créée avec son mari Aymar du Chatenet[13].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">René Goscinny a écrit 223 histoires au total. 222 d'entre elles ont été rassemblées en huit recueils, 5 du vivant de Goscinny et 3 au cours des années 2000.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Le Petit Nicolas en livres</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1960, sort Le Petit Nicolas en librairie chez Denoël qui sera le premier éditeur de la saga. Les cinq premiers volumes qui paraissent chaque année de 1960 à 1964 : Le Petit Nicolas, Les récrés du Petit Nicolas, Les vacances du Petit Nicolas, Le Petit Nicolas et les copains, Joachim a des ennuis (qui sera réédité plus tard sous le titre Le Petit Nicolas a des ennuis). Chaque recueil rassemble une quinzaine d’histoires parues dans Sud-Ouest-Dimanche et Pilote. « Le premier volume n’a absolument pas marché » raconte Sempé. C’est l’émission de télévision, Lecture pour tous animée par Pierre Dumayet qui lance Le Petit Nicolas, grâce à la présence sur le plateau de ses deux créateurs : « Nous avons arrêté avant que cela ne tourne au cauchemar. C’était un style très spécial. Il ne fallait pas que cela tourne au procédé. Cela dit, chaque fois que nous nous voyons, nous sommes tentés de reprendre les aventures du Petit Nicolas… C’est un personnage pour qui j’ai une tendresse toute particulière » déclare Goscinny, qui disparaît en 1977. « Il avait trouvé un ton formidable et qui plaît encore aux enfants d’aujourd’hui, fait remarquer Sempé. Par la suite, il m’a dit, à plusieurs reprises, que le Petit Nicolas était ce qu’il préférait de toute son œuvre ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>La deuxième vie du Petit Nicolas</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2004, Anne Goscinny exhume des archives de son père nombre d’histoires inédites en livre, pour la plupart parues dans Sud-Ouest Dimanche. Elle décide, avec l’accord de Sempé, de publier ces inédits chez IMAV, maison d’éditions créée avec son mari Aymar du Chatenet.
 Trois autres opus viennent compléter la série chez IMAV éditions :
   Histoires inédites du Petit Nicolas - volume 2 paru en 2006
 Le Petit Nicolas – Le ballon et autres histoires inédites à l’occasion des cinquante ans du personnage en 2009 : cet ouvrage rassemble 10 histoires dont neuf totalement inédites et jamais illustrées par Sempé. Pour l’occasion, le dessinateur opte pour des illustrations en couleur à l’aquarelle. Figure dans cet ouvrage également la toute première histoire du personnage parue le 29 mars 1959 dans Sud-Ouest Dimanche, « L’Œuf de Pâques ».
 Le Petit Nicolas - La bande dessinée originale paru en 2017 qui rassemble les 28 planches publiées entre 1955 et 1956 dans Le Moustique.
 IMAV éditions est devenue la maison-mère du Petit Nicolas et publie désormais l’intégralité du catalogue, y compris les anciens titres parus chez Denoël. IMAV éditions gèrent également les droits d’adaptation audiovisuelle et merchandising pour le monde entier.
 Une série de grandes expositions patrimoniales dont l’une à l’Hôtel de Ville de Paris (150 000 visiteurs en 2009) ou encore à La Fondation Louis Vuitton (2019) ainsi que quatre films au cinéma et deux séries télévisés ont largement contribué à la notoriété du personnage dont Sempé dira « Le Petit Nicolas est indémodable car lorsque nous l’avons créé il était déjà démodé ».
-Histoires originales
-Recueils publiés du vivant de Goscinny
-Le Petit Nicolas (1960) - 19 histoires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Histoires originales</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Recueils publiés du vivant de Goscinny</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Le Petit Nicolas (1960) - 19 histoires.
 Les Récrés du petit Nicolas (1961) - 17 histoires.
 Les Vacances du Petit Nicolas (1962) - 18 (+1) histoires.
 Le Petit Nicolas et les Copains (1963), récompensé par le prix Alphonse-Allais - 16 histoires.
-Joachim a des ennuis (1964) - 16 histoires, qui sera réédité à partir de 1987 sous le titre Le Petit Nicolas a des ennuis.
-Recueils inédits, publiés après le décès de Goscinny
-Histoires inédites du Petit Nicolas (2004) 80 histoires inédites publiées par Anne Goscinny et Sempé. Ces histoires avaient déjà été publiées dans Sud-Ouest Dimanche, mais jamais sous forme de livre.
+Joachim a des ennuis (1964) - 16 histoires, qui sera réédité à partir de 1987 sous le titre Le Petit Nicolas a des ennuis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Histoires originales</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Recueils inédits, publiés après le décès de Goscinny</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Histoires inédites du Petit Nicolas (2004) 80 histoires inédites publiées par Anne Goscinny et Sempé. Ces histoires avaient déjà été publiées dans Sud-Ouest Dimanche, mais jamais sous forme de livre.
 Ce recueil de 2004 a été édité au format de poche (Gallimard jeunesse, coll. "Folio junior") en 5 volumes dont les titres sont :
 vol. 1 : Les Bêtises du Petit Nicolas
 vol: 2 : Le Petit Nicolas voyage (en bonus : Roma ou l'aventure automobile, récit inédit qui conte les dangers de la circulation en Italie).
@@ -709,12 +1086,88 @@
 Le Petit Nicolas, c'est Noël !
 Le Petit Nicolas le ballon et autres histoires inédites
 Le Petit Nicolas, la bande dessinée
-Le Grand livre du Petit Nicolas, Gallimard Jeunesse / IMAV éditions, 2020.
-Traductions
-Latin
-Le Petit Nicolas en latin – Pullus Nicolellus. Traduction Elisabeth Antébi et Marie France Saignes, IMAV éditions, novembre 2012
-Langues régionales
-La collection « Le Petit Nicolas dans les langues de France »
+Le Grand livre du Petit Nicolas, Gallimard Jeunesse / IMAV éditions, 2020.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Latin</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Petit Nicolas en latin – Pullus Nicolellus. Traduction Elisabeth Antébi et Marie France Saignes, IMAV éditions, novembre 2012
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Langues régionales</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>La collection « Le Petit Nicolas dans les langues de France »
 Les éditions IMAV ont traduit le Petit Nicolas dans les 75 langues de France officiellement référencées.
 Le Petit Nicolas en langue corse - Niculinu in corsu. Juin 2013
 Le Petit Nicolas en breton - Nikolazig e brezhoneg. Novembre 2013
@@ -734,36 +1187,37 @@
 Le Petit Nicolas en auvergnat - Lo petiòt Nicolau per auvernhàsLivre bilingue. Décembre 2018
 Le Petit Nicolas en languedocien - Lo pichòt Nicolau en occitan lengadocian Livre bilingue. Décembre 2018
 Le Petit Nicolas en limousin - Nicolaudon en lemosin Livre bilingue. Avril 2019
-Le Petit Nicolas en normand - Le P’tit Colas en normaund Livre bilingue. Septembre 2020
-Langues étrangères</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Le_Petit_Nicolas</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Le_Petit_Nicolas</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+Le Petit Nicolas en normand - Le P’tit Colas en normaund Livre bilingue. Septembre 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Nicolas</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Discographie (enregistrements parlés)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Le Petit Nicolas / Sempé, Goscinny, aut. ; musiques originales de Patrice Gomis ; lu par Brigitte Lecordier. - Paris : Éditions Gallimard Jeunesse, P 2004. - 2 disques compacts (2 h) + 2 f. de pl. Prod. : Paris : Gallimard Jeunesse, P 2004. - Gallimard jeunesse A 53556 (boîte). - EAN 3260050668583
 Les Vacances du petit Nicolas / Sempé, ill. ; Goscinny, aut. ; Manuel Dubigeon et Hervé Mallet, mus. ; texte lu par Rémy Dévèze, Véronique Françaix, Barbara Hurel, Marie-Pierre Sanson. - Édition spéciale. - Paris : Gallimard ; Lagny-Sur-Marne : distrib. Société de distribution des produits de l'édition, 1987 (cop.). - 1 livre (186 p.) : ill., couv. ill. en coul. ; 18 cm. - 2 cass. audio (2 h). - (Folio junior). Cop. 1987.  (ISBN 2-07-033457-0) (livre). -  (ISBN 2-07-058460-7) (Coffret) : 130 F. - Gallimard jeunesse A58460 (Boîte).
